--- a/fr.xlsx
+++ b/fr.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_mesDocs\_git\trouble_shooting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Translation - Share\bbaudry\troubleshooting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="all_fr" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,17 @@
     <sheet name="stability_fr" sheetId="9" r:id="rId8"/>
     <sheet name="wifi-lan_fr" sheetId="10" r:id="rId9"/>
     <sheet name="tv_fr" sheetId="11" r:id="rId10"/>
-    <sheet name="old_tv" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="all_fr" localSheetId="0">all_fr!$A$1:$H$16</definedName>
+    <definedName name="all_fr" localSheetId="0">all_fr!$A$1:$H$14</definedName>
     <definedName name="cables_fr" localSheetId="1">cables_fr!$A$1:$H$10</definedName>
     <definedName name="collection_fr" localSheetId="2">collection_fr!$A$1:$H$17</definedName>
     <definedName name="equipment_fr" localSheetId="3">equipment_fr!$A$1:$H$24</definedName>
     <definedName name="escalation_fr" localSheetId="4">escalation_fr!$A$1:$H$18</definedName>
-    <definedName name="installation_activation_fr" localSheetId="5">'installation-activation_fr'!$A$1:$H$16</definedName>
-    <definedName name="nointernet_fr" localSheetId="6">nointernet_fr!$A$1:$H$36</definedName>
-    <definedName name="salttv_fr" localSheetId="10">old_tv!$A$1:$H$28</definedName>
-    <definedName name="stability_fr" localSheetId="7">stability_fr!$A$1:$H$24</definedName>
-    <definedName name="wifi_lan_fr" localSheetId="8">'wifi-lan_fr'!$A$1:$H$30</definedName>
+    <definedName name="installation_activation_fr" localSheetId="5">'installation-activation_fr'!$A$1:$H$15</definedName>
+    <definedName name="nointernet_fr" localSheetId="6">nointernet_fr!$A$1:$H$34</definedName>
+    <definedName name="stability_fr" localSheetId="7">stability_fr!$A$1:$H$20</definedName>
+    <definedName name="wifi_lan_fr" localSheetId="8">'wifi-lan_fr'!$A$1:$H$28</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -145,8 +143,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="salttv_fr" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="C:\_mesDocs\_git\qook\troubleshooting\locales\fr-FR\salttv_fr.txt">
+  <connection id="8" name="stability_fr" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" codePage="65001" sourceFile="C:\_mesDocs\_git\ts-tool-assets\locales\fr-FR\stability_fr.txt">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -159,21 +157,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="stability_fr" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
-    <textPr prompt="0" codePage="65001" sourceFile="C:\_mesDocs\_git\ts-tool-assets\locales\fr-FR\stability_fr.txt">
-      <textFields count="8">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="10" name="wifi-lan_fr" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
+  <connection id="9" name="wifi-lan_fr" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
     <textPr prompt="0" codePage="65001" sourceFile="C:\_mesDocs\_git\ts-tool-assets\locales\fr-FR\wifi-lan_fr.txt">
       <textFields count="8">
         <textField/>
@@ -191,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="868">
   <si>
     <t>FLAG</t>
   </si>
@@ -310,9 +294,6 @@
     <t>$flow.Intro</t>
   </si>
   <si>
-    <t>Le client nous contacte se plaignant de &lt;N&gt;&lt;T&gt;- ne pas arriver à se connecter à Internet (&lt;em&gt;vérifier que la Box est bien chez lui&lt;em&gt;).&lt;N&gt;&lt;T&gt;- avoir des soucis à regarder la télé.&lt;N&gt;&lt;T&gt;- n'a pas reçu son matériel (Fiber Box)</t>
-  </si>
-  <si>
     <t>J'ai un souci avec mon produit Salt…&lt;N&gt;TV / Livraison du matériel / Connection internet</t>
   </si>
   <si>
@@ -325,9 +306,6 @@
     <t>TV fonctionne pas bien</t>
   </si>
   <si>
-    <t>Pas reçu la Box Fiber</t>
-  </si>
-  <si>
     <t>$flow.all.customer.IsSlowOrKaput</t>
   </si>
   <si>
@@ -350,9 +328,6 @@
   </si>
   <si>
     <t xml:space="preserve">En fonction du type de connexion utilisé par le client. </t>
-  </si>
-  <si>
-    <t>Quand le problème arrive, à quoi l'appareil est connecté en LAN ou WiFi ?</t>
   </si>
   <si>
     <t>WiFi</t>
@@ -1641,6 +1616,9 @@
     <t>$flow.stability.WasREbootDone</t>
   </si>
   <si>
+    <t>Nous allons tester ensemble vos vitesses de connexion.&lt;N&gt;Començons par un reboot de la box</t>
+  </si>
+  <si>
     <t>Reboot fait</t>
   </si>
   <si>
@@ -1842,19 +1820,12 @@
     <t>$flow.stability._ShareAdviceOptimalWifi</t>
   </si>
   <si>
-    <t>Lisez les conseils de la page WiFi optimale et envoyez un lien au client.</t>
-  </si>
-  <si>
     <t>Permettez-moi de partager avec vous les meilleures pratiques pour une installation WiFi optimale</t>
   </si>
   <si>
     <t>$flow.stability._TestSpeed</t>
   </si>
   <si>
-    <t>Demander au client de reproduire ce qu'il a fait et qui l'a amené à appeler
-Salt&lt;N&gt;&lt;T&gt;- Streaming app freezing&lt;N&gt;&lt;&lt;T&gt;- Long chargement de la page&lt;N&gt;&lt;T&gt;- Etc.</t>
-  </si>
-  <si>
     <t>Testons maintenant si vous rencontrez les mêmes problèmes de performance</t>
   </si>
   <si>
@@ -2059,9 +2030,6 @@
     <t>$flow.lan.TestWithAppleTV</t>
   </si>
   <si>
-    <t>Tester avec l'AppleTV en LAN</t>
-  </si>
-  <si>
     <t>$flow.wifi._ConnectWiFIToFiveGH</t>
   </si>
   <si>
@@ -2098,9 +2066,6 @@
     <t>$flow.lan._TestWithAnotherLanDevice</t>
   </si>
   <si>
-    <t>Essayer avec un autre appareil en LAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">(pas directement à la Box) </t>
   </si>
   <si>
@@ -2128,12 +2093,6 @@
     <t>$flow.wifi._CanSeeGoogle</t>
   </si>
   <si>
-    <t>Demandez au client d'ouvrir un navigateur et d'entrer google.com&lt;N&gt;S'il peut l'atteindre, aucun ticket ne sera créé &lt;b&gt;à moins qu'il n'indique l'url ou l'app&lt;b&gt; qui ne fonctionne toujours pas.</t>
-  </si>
-  <si>
-    <t>Tester Google puis d'autres URL sur le navigateur de l'appareil</t>
-  </si>
-  <si>
     <t>A pu accéder à Google</t>
   </si>
   <si>
@@ -2146,386 +2105,691 @@
     <t>$flow.lan.OkToTryWifi</t>
   </si>
   <si>
-    <t>Dans la majorité des cas, le client dispose d'un appareil WiFi et il sera très judicieux d'essayer.&lt;N&gt;Dans d'autres cas, soit le client n'a pas d'appareil WiFi, soit il affirme qu'il fonctionne bien avec le WiFi, sélectionnez NON puis un ticket LAN ISSUE sera créé.</t>
-  </si>
-  <si>
-    <t>Essayons maintenant de voir si cela fonctionne sur le WiFi</t>
-  </si>
-  <si>
-    <t>Ok, c'est parti</t>
-  </si>
-  <si>
     <t>Non, ne fonctionne pas</t>
   </si>
   <si>
     <t>general/feedbakcs</t>
   </si>
   <si>
-    <t>Dans :&lt;N&gt;&lt;T&gt;- VTI -&gt; Gestion de l’offre -&gt; Dashboard santé -&gt; TV&lt;N&gt;&lt;N&gt;cliquer sur &lt;Q&gt;Activer l’utilisateur TV &lt;Q&gt;</t>
-  </si>
-  <si>
-    <t>Activer les services TV dans VTI</t>
-  </si>
-  <si>
-    <t>tv/activatetvuserfr</t>
-  </si>
-  <si>
-    <t>Activé</t>
-  </si>
-  <si>
-    <t>https://qoof.salt.ch/fr/customer-process/use_trouble/tv/salttv_automatic_deactivation_after_non_use</t>
-  </si>
-  <si>
-    <t>Vérifier que le numéro de port physique HDMI correspond au type &lt;Q&gt;INPUT/SOURCE&lt;Q&gt; sélectionné sur le téléviseur.&lt;N&gt;Remplacer le câble HDMI si possible.</t>
-  </si>
-  <si>
-    <t>Vérifier la connexion du câble HDMI</t>
+    <t>Aller sur google.com, faire une recherche (p. ex. "salt") et voir si les résultats concordent.&lt;N&gt;&lt;N&gt;Si le client s'y connaît en informatique, demandez-lui également de vérifier si le système d'exploitation indique que la connexion Ethernet est correcte.</t>
+  </si>
+  <si>
+    <t>Ne peut pas utiliser l'Apple TV en LAN</t>
+  </si>
+  <si>
+    <t>Essayer de tester avec l'AppleTV en LAN</t>
+  </si>
+  <si>
+    <t>Essayer de tester avec un autre appareil en LAN</t>
+  </si>
+  <si>
+    <t>Si le client dispose d'un autre appareil qu'il peut connecter en réseau local, demandez-lui de se connecter directement au boîtier et à la connexion Ethernet comme auparavant.</t>
+  </si>
+  <si>
+    <t>Aucun autre appareil LAN disponible</t>
+  </si>
+  <si>
+    <t>Tout est prêt, on teste</t>
+  </si>
+  <si>
+    <t>customer/google_wifi</t>
+  </si>
+  <si>
+    <t>$flow.lan.LetsCheckYourWiFi</t>
+  </si>
+  <si>
+    <t>Demander au client d'ouvrir un navigateur et d'entrer google.com&lt;N&gt;S'il peut l'atteindre, aucun ticket ne sera créé, &lt;b&gt;à moins que le client n'indique l'url ou l'app&lt;b&gt; qui ne fonctionne toujours pas.</t>
+  </si>
+  <si>
+    <t>Dans la majorité des cas, le client dispose d'un appareil WiFi et il serait très utile de le savoir.&lt;N&gt; Il suffit de demander au client de se connecter au WiFi avec un appareil.</t>
+  </si>
+  <si>
+    <t>Demander au client d'ouvrir un navigateur sur un appareil connecté au WiFi et d'essayer google.com</t>
+  </si>
+  <si>
+    <t>Tester Google et ensuite d'autres URL sur le navigateur de l'appareil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essayons maintenant de voir si cela fonctionne avec un WiFi </t>
+  </si>
+  <si>
+    <t>La connexion LAN fonctionne, testons votre WiFi</t>
+  </si>
+  <si>
+    <t>Le WiFi fonctionne</t>
+  </si>
+  <si>
+    <t>Le WiFi fonctionne aussi</t>
+  </si>
+  <si>
+    <t>Le WiFi ne marche pas non plus</t>
+  </si>
+  <si>
+    <t>Le WiFi n'a pas pu être testé</t>
+  </si>
+  <si>
+    <t>Demander au client de faire/utiliser/redémarrer à nouveau ce qui l'a amené à nous appeler&lt;N&gt;&lt;T&gt;- Streaming app freezing&lt;N&gt;&lt;T&gt;- Long chargement de page&lt;N&gt;&lt;T&gt;- Etc.</t>
+  </si>
+  <si>
+    <t>Même problème</t>
+  </si>
+  <si>
+    <t>Marche bien, maintenant</t>
+  </si>
+  <si>
+    <t>$flow.tv.sound._StoreCustomersSetup</t>
+  </si>
+  <si>
+    <t>$flow.tv.sound._AppleTVSoundSetup</t>
+  </si>
+  <si>
+    <t>$flow.tv.sound._SaltTVDetails</t>
+  </si>
+  <si>
+    <t>$flow.tv.sound._IssueDescription</t>
+  </si>
+  <si>
+    <t>$flow.tv.sound._HowFerquent</t>
+  </si>
+  <si>
+    <t>$flow.tv.sound.IsSameIssueWithOtherApps</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.WichRemote</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.DoesAppleTVLedBlinks</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.siri._RechargeSiriRemote</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.siri._GetCloseToAppleTV</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.siri._PressMenuAndPlus</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.siri._AdviceOnSiriRemoteUSage</t>
+  </si>
+  <si>
+    <t>https://fiber.salt.ch/fiber/equipment/apple-tv/guide</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv._EnsureAppleTVInVisualRangeOfRemote</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv.DoesRedLedBlinksOnRemoteWhenPressed</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv._MakeSureBatteriesCoerrectlyInstalled</t>
+  </si>
+  <si>
+    <t>tv/salttv_remote/batteries</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv.CanReplaceBatteries</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv._ReplaceBatteriesThenCallUsBack</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv.IsAppleTVFourthGen</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/HT200008</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv.IsLatestSaltTVAppInstalled</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv._SteupSaltTVRemoteWithRegularTV</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv.DoesVolumeOnTvChange</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv.WasThePurchaseDoneLessThanOnYearAgo</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv._GoToStoreToReplace</t>
+  </si>
+  <si>
+    <t>$flow.tv.remote.satltv._NeedToBuyOneNew</t>
+  </si>
+  <si>
+    <t>$flow.tv.hardware.IsAppleTVvisibleOnTVScreen</t>
+  </si>
+  <si>
+    <t>tv/tvhomescreen</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>$flow.tv.hardware._MakeSurePowerCableWellPlugged</t>
+  </si>
+  <si>
+    <t>tv/powercablepluggedin</t>
+  </si>
+  <si>
+    <t>$flow.tv.hardware.WhiteLightLids</t>
+  </si>
+  <si>
+    <t>tv/statusled</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-gb/guide/tv/atvba38a4135/tvos</t>
+  </si>
+  <si>
+    <t>$flow.tv.hardware._CheckHDMIcnx</t>
   </si>
   <si>
     <t>tv/hdmiconnection</t>
   </si>
   <si>
+    <t>https://youtu.be/UFBwdVRnc-E?t=270</t>
+  </si>
+  <si>
+    <t>$flow.tv.hardware._RepairProcess</t>
+  </si>
+  <si>
+    <t>https://qoof.salt.ch/de/customer-process/use_trouble/replacement_and_repair/repair_equipment_fiberbox_tvbox_accessories#salt-fiber-box-fiber-zubeh%C3%B6r-und-apple-tv-4k</t>
+  </si>
+  <si>
+    <t>$flow.tv.install.IsSaltIconVisibleOnAppleTV</t>
+  </si>
+  <si>
+    <t>tv/salttvicon</t>
+  </si>
+  <si>
+    <t>$flow.tv.install._OpenAppleStore</t>
+  </si>
+  <si>
+    <t>$flow.tv.install.CanSeeSaltTVOnAppleStore</t>
+  </si>
+  <si>
+    <t>$flow.tv.install.HasAppleId</t>
+  </si>
+  <si>
+    <t>$flow.tv.install.CanCreateAppleAccount</t>
+  </si>
+  <si>
+    <t>$flow.tv.install.HasSwissAppleID</t>
+  </si>
+  <si>
+    <t>Swiss Apple ID</t>
+  </si>
+  <si>
+    <t>$flow.tv.install.WantToChangeToSwiss</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-us/HT201389</t>
+  </si>
+  <si>
+    <t>$flow.tv.install._HowToChangeAppleIDtoSwiss</t>
+  </si>
+  <si>
+    <t>$flow.tv.install._InstallSaltTV</t>
+  </si>
+  <si>
+    <t>https://qoof.salt.ch/de/customer-process/configure/manage_appletv_salttv/salttv/salttv_download_tipps_and_tricks</t>
+  </si>
+  <si>
+    <t>$flow.tv.install._LogInWithSwissAppleID</t>
+  </si>
+  <si>
+    <t>$flow.tv.install._CreateAppleIDorBypass</t>
+  </si>
+  <si>
+    <t>$flow.tv.install._ResetAppleTV</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-gb/HT202118</t>
+  </si>
+  <si>
+    <t>$flow.tv.app._QuitAndRelaunchSaltTV</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-gb/guide/tv/atvbbcec4f4e/tvos</t>
+  </si>
+  <si>
+    <t>$flow.tv.app.ProblemSolved</t>
+  </si>
+  <si>
+    <t>$flow.tv.app._CheckIfAppNeedsUpdate</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-gb/guide/tv/atvb7e0a4ea5/tvos</t>
+  </si>
+  <si>
+    <t>$flow.tv.app._RebootAppleTV</t>
+  </si>
+  <si>
+    <t>https://support.apple.com/en-us/HT201836</t>
+  </si>
+  <si>
+    <t>$flow.tv.app._CheckIfSaltTVNeedsUpdate</t>
+  </si>
+  <si>
+    <t>tv/updatesalttv</t>
+  </si>
+  <si>
+    <t>https://qoof.salt.ch/de/customer-process/configure/manage_appletv_salttv/salttv/update_salt_tv_app</t>
+  </si>
+  <si>
+    <t>$flow.tv.app.WhatAppleTVcnxType</t>
+  </si>
+  <si>
+    <t>$flow.tv.app.IsIssueWithOtherApps</t>
+  </si>
+  <si>
+    <t>$flow.tv.app.CanCheckWithLan</t>
+  </si>
+  <si>
+    <t>$flow.tv.services.IsMessageInvitingToContactCC</t>
+  </si>
+  <si>
+    <t>$flow.tv.services.IsTVServicesActiveVTI</t>
+  </si>
+  <si>
+    <t>tv/activetvservice</t>
+  </si>
+  <si>
+    <t>$flow.tv.services.IsBasicTvPackageVisible</t>
+  </si>
+  <si>
+    <t>$flow.tv.services.IsBarringVisible</t>
+  </si>
+  <si>
+    <t>$flow.tv.WhatIStheTVIssue</t>
+  </si>
+  <si>
+    <t>$flow.tv._OpenSaltTVApp</t>
+  </si>
+  <si>
+    <t>$flow.tv.ChekSaltTVKNownBugs</t>
+  </si>
+  <si>
+    <t>https://qoof.salt.ch/de/bug/services/salt_tv_known_bugs</t>
+  </si>
+  <si>
+    <t>$flow.tv.CanExploreMenu</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>$flow.tv._InformSaltIsFixing</t>
+  </si>
+  <si>
+    <t>$flow.tv._CreateSOTicketSaltTV</t>
+  </si>
+  <si>
+    <t>Le client nous contacte se plaignant de &lt;N&gt;&lt;T&gt;- ne pas arriver à se connecter à Internet.&lt;N&gt;&lt;T&gt;- avoir des soucis à regarder la télé.&lt;N&gt;&lt;T&gt;- n'a pas reçu son matériel (Fiber Box).&lt;N&gt;&lt;N&gt;&lt;b&gt;Pour poursuivre le dépannage, le client doit être chez lui et pouvoir accéder physiquement à la Box.&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Pas reçu la Fiber Box</t>
+  </si>
+  <si>
+    <t>Quand le problème arrive, l'appareil est-il connecté en LAN ou en WiFi ?</t>
+  </si>
+  <si>
+    <t>&lt;N&gt;&lt;T&gt;-Marque et modèle de télévision&lt;N&gt;&lt;&lt;T&gt;-Marque et modèle de système de son</t>
+  </si>
+  <si>
+    <t>&lt;N&gt;&lt;T&gt;-Sortie audio&lt;N&gt;&lt;T&gt;-Format audio&lt;N&gt;&lt;T&gt;-Réduire les sons forts&lt;N&gt;&lt;T&gt;-Mode audio</t>
+  </si>
+  <si>
+    <t>&lt;N&gt;&lt;T&gt;-Canaux concernés&lt;N&gt;&lt;T&gt;-Nom du programme&lt;N&gt;&lt;T&gt;-HeureEtDate</t>
+  </si>
+  <si>
+    <t>Quel est exactement le défaut audio auquel le client est confronté</t>
+  </si>
+  <si>
+    <t>Expl : avec iTunes, Spotify, les jeux etc...</t>
+  </si>
+  <si>
+    <t>Demandez si le sujet est diffusé sur toutes les chaînes ou sur une seule. Toujours ou de temps en temps, etc...</t>
+  </si>
+  <si>
+    <t>Ouvrez la page de support Apple&lt;N&gt;Vérifiez l'apparence et le numéro de modèle s'ils correspondent à ceux de l'Apple TV 4K ou de l'Apple TV HD</t>
+  </si>
+  <si>
+    <t>Quelle est la configuration du client ?</t>
+  </si>
+  <si>
+    <t>Comment le son de l'Apple TV est-il réglé ?</t>
+  </si>
+  <si>
+    <t>Décrivez le problème de son</t>
+  </si>
+  <si>
+    <t>Quelle est la fréquence, quand cela se produit-il ?</t>
+  </si>
+  <si>
+    <t>Le problème de son se produit-il avec d'autres applications sur l'Apple TV ?</t>
+  </si>
+  <si>
+    <t>Avec la télécommande, est-ce le cas ?</t>
+  </si>
+  <si>
+    <t>La lumière sur les couvercles des Apple TV et les icônes sur la télévision bougent-elles ?</t>
+  </si>
+  <si>
+    <t>Branchez la télécommande Siri sur un câble électrique et rechargez-le.</t>
+  </si>
+  <si>
+    <t>Avec la télécommande en main, approchez-vous de l'Apple TV</t>
+  </si>
+  <si>
+    <t>Conseils sur l'utilisation de la télécommande Siri.</t>
+  </si>
+  <si>
+    <t>Assurez-vous que l'Apple TV est à portée visuelle avec la télécommande</t>
+  </si>
+  <si>
+    <t>La LED rouge clignote-t-elle sur la télécommande ?</t>
+  </si>
+  <si>
+    <t>Vérifiez que les piles sont correctement insérées dans la télécommande</t>
+  </si>
+  <si>
+    <t>Pouvez-vous remplacer les piles maintenant ?</t>
+  </si>
+  <si>
+    <t>Veuillez les remplacer et nous rappeler</t>
+  </si>
+  <si>
+    <t>L'Apple TV est-elle de la quatrième génération ?</t>
+  </si>
+  <si>
+    <t>La dernière application Salt TV est-elle installée ?</t>
+  </si>
+  <si>
+    <t>Essayez de configurer la télécommande de Salt TV avec une télévision ordinaire</t>
+  </si>
+  <si>
+    <t>Le volume de la télévision change-t-il ?</t>
+  </si>
+  <si>
+    <t>Quand avez-vous acheté la télécommande ?&lt;N&gt; Il y a plus d'un an ?</t>
+  </si>
+  <si>
+    <t>Allez dans un magasin pour la remplacer</t>
+  </si>
+  <si>
+    <t>La garantie est passée. Il semble que votre télécommande soit défectueuse. &lt;N&gt;Vous devriez en acheter une nouvelle.</t>
+  </si>
+  <si>
+    <t>L'écran d'accueil de l'Apple TV est-il visible sur la télévision ?</t>
+  </si>
+  <si>
+    <t>Le câble d'alimentation est-il correctement branché ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La LED blanche (voyant d'état) de l'Apple TV est-elle allumée ? </t>
+  </si>
+  <si>
+    <t>Vérifiez la connexion du câble HDMI</t>
+  </si>
+  <si>
+    <t>L'Apple TV doit être réparée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'icône de l'application Salt TV est-elle visible ?  </t>
+  </si>
+  <si>
+    <t>Êtes-vous d'accord pour en créer un ?</t>
+  </si>
+  <si>
+    <t>L'Apple ID est-il un Apple ID suisse ?</t>
+  </si>
+  <si>
+    <t>Pouvez-vous changer le pays de votre Apple ID en Suisse ?</t>
+  </si>
+  <si>
+    <t>Changeons votre Apple ID de pays !</t>
+  </si>
+  <si>
+    <t>Téléchargez et installez l'application Salt TV</t>
+  </si>
+  <si>
+    <t>Connectez-vous avec un compte Apple TV suisse</t>
+  </si>
+  <si>
+    <t>Connectez l'Apple TV à la Fiber Box pour installer automatiquement Salt TV</t>
+  </si>
+  <si>
+    <t>Réinitialiser l'AppleTV</t>
+  </si>
+  <si>
+    <t>Redémarrer l'application Salt TV</t>
+  </si>
+  <si>
+    <t>Le problème est-il résolu ?</t>
+  </si>
+  <si>
+    <t>Le logiciel Apple TV 4K est-il à jour ?</t>
+  </si>
+  <si>
+    <t>Redémarrer l'Apple TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'application Salt TV est-elle dans sa dernière version ?  </t>
+  </si>
+  <si>
+    <t>Comment l'AppleTV est-elle connectée à la Fiber Box ?</t>
+  </si>
+  <si>
+    <t>Le problème se pose-t-il uniquement avec Salt TV ou avec d'autres applications Apple TV ?</t>
+  </si>
+  <si>
+    <t>Pouvez-vous essayer de connecter l'Apple TV au réseau local ?</t>
+  </si>
+  <si>
+    <t>Y a-t-il un message invitant le client à appeler le service clientèle ?</t>
+  </si>
+  <si>
+    <t>Quel est votre problème ?</t>
+  </si>
+  <si>
+    <t>Ouvrez l'application Salt TV</t>
+  </si>
+  <si>
+    <t>Y a-t-il actuellement un bug de Salt TV en cours publié dans Qoof ?</t>
+  </si>
+  <si>
+    <t>Pouvez-vous explorer le menu de Salt TV ?</t>
+  </si>
+  <si>
+    <t>Quels sont les problèmes auxquels vous êtes confrontés ?</t>
+  </si>
+  <si>
+    <t>Nos techniciens sont en train de le réparer.</t>
+  </si>
+  <si>
+    <t>Création automatique de tickets [541] dans SuperOffice</t>
+  </si>
+  <si>
+    <t>Donnez-nous plus de détails sur la façon dont vous utilisez Salt TV lorsque vous êtes confronté à un problème de son</t>
+  </si>
+  <si>
+    <t>Relier la télécommande Siri à l'Apple TV&lt;N&gt;Appuyer simultanément sur les touches MENU et +.</t>
+  </si>
+  <si>
+    <t>Ouvrez l'Apple Store sur l'Apple TV</t>
+  </si>
+  <si>
+    <t>Pouvez-vous voir Salt TV sur le Store ?</t>
+  </si>
+  <si>
+    <t>Avez-vous un identifiant Apple (compte Apple) ?</t>
+  </si>
+  <si>
+    <t>Les services de télévision sont-ils actifs dans VTI ?</t>
+  </si>
+  <si>
+    <t>Vérifiez dans VTI si le client dispose de forfaits de base</t>
+  </si>
+  <si>
+    <t>Vérifiez dans VTI si une interdiction est visible</t>
+  </si>
+  <si>
+    <t>Câble OK</t>
+  </si>
+  <si>
+    <t>Oui, blanche</t>
+  </si>
+  <si>
     <t>Connexion OK</t>
   </si>
   <si>
-    <t>https://youtu.be/z9aL-arjRJw?t=267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si une mise à jour est nécessaire, mettre à jour le logiciel de l’Apple TV.&lt;N&gt;&lt;T&gt;- Aller à &lt;Q&gt;Réglages - Système - Mises à jour logicielles&lt;Q&gt;&lt;N&gt;&lt;T&gt;- Sélectionner &lt;Q&gt;Mettre à jour les logiciels&lt;Q&gt; </t>
-  </si>
-  <si>
-    <t>Le logiciel Apple TV 4K est-il à jour ?</t>
-  </si>
-  <si>
-    <t>Mise à jour</t>
-  </si>
-  <si>
-    <t>https://support.apple.com/fr-ch/guide/tv/atvb7e0a4ea5/tvos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si une mise à jour est nécessaire, mettre à jour l'application Salt TV.&lt;N&gt;&lt;N&gt;Recommander au client de configurer les mises à jour automatiques de l'application.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'application Salt TV est-elle à la dernière version ?  </t>
-  </si>
-  <si>
-    <t>tv/updatesalttv</t>
-  </si>
-  <si>
-    <t>https://qoof.salt.ch/fr/customer-process/configure/manage_appletv_salttv/salttv/update_salt_tv_app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vérifier si un incident général Salt TV ou un incident concernant la chaîne spécifique est publié dans Qoof.&lt;N&gt;Statut &lt;Q&gt;Open&lt;Q&gt; </t>
-  </si>
-  <si>
-    <t>Y a-t-il actuellement un bug Salt TV en cours publié dans Qoof ?</t>
-  </si>
-  <si>
-    <t>Pas d'incident</t>
-  </si>
-  <si>
-    <t>https://qoof.salt.ch/fr/bug/services/salt_tv_known_bugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demander au client de vérifier à l'arrière du routeur. </t>
-  </si>
-  <si>
-    <t>S'assurer que l'Apple TV est connectée au port ethernet 1Ghz</t>
-  </si>
-  <si>
-    <t>Connecté à 1Ghz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Choisir SUISSE comme pays&lt;N&gt;2. Connecter l'Apple TV à la Fiber Box Connecter l'Apple TV à la Fiber Box pour permettre &lt;Q&gt;Zero sign in&lt;Q&gt;.&lt;N&gt;3. Sauter l'étape de saisie de l'Apple ID&lt;N&gt;4. Sélectionner Salt comme fournisseur TV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connecter l'Apple TV à la Fiber Box pour installer automatiquement Salt TV </t>
-  </si>
-  <si>
-    <t>Un ticket [541] sera automatiquement généré lors du passage à l'étape suivante. Ne pas créer de ticket manuellement (SuperOffice). Une copie du contenu sera envoyée à ta boîte e-mail.</t>
-  </si>
-  <si>
-    <t>Création automatique du ticket [541] dans SuperOffice.</t>
-  </si>
-  <si>
-    <t>Dans le document Qoof vous trouverez des tutoriels &lt;Q&gt;YouTube&lt;Q&gt; pour les clients avec ou sans Apple ID.</t>
-  </si>
-  <si>
-    <t>Télécharger et installer l'application Salt TV</t>
-  </si>
-  <si>
-    <t>https://qoof.salt.ch/fr/customer-process/configure/manage_appletv_salttv/salttv/salttv_download_tipps_and_tricks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disponible dans l'App Store sur la page &lt;Q&gt;Home&lt;Q&gt; </t>
-  </si>
-  <si>
-    <t>Télécharger et installer l'application Speedtest sur l'Apple TV&lt;N&gt;Et connectez-vous en LAN</t>
-  </si>
-  <si>
-    <t>https://www.speedtest.net/fr/apps/appletv</t>
-  </si>
-  <si>
-    <t>Vérifier que le câble d'alimentation est bien branché.&lt;N&gt;Changer la prise murale si nécessaire.</t>
-  </si>
-  <si>
-    <t>Le câble d'alimentation est-il bien branché ?</t>
-  </si>
-  <si>
-    <t>tv/powercablepluggedin</t>
-  </si>
-  <si>
-    <t>Câble OK</t>
-  </si>
-  <si>
-    <t>Appuyer deux fois rapidement sur le bouton &lt;Q&gt;Home&lt;Q&gt;&lt;N&gt;Balayer vers la gauche ou vers la droite sur la surface Touch de la télécommande Siri Remote pour accéder à Salt TV.&lt;N&gt;Balayer la surface Touch de la télécommande Siri Remote vers le haut pour forcer la fermeture de l’app Salt TV.&lt;N&gt;Appuyer sur la touche Menu pour revenir à l'écran &lt;Q&gt;Home&lt;Q&gt; puis redémarrer l'application Salt TV.</t>
-  </si>
-  <si>
-    <t>Redémarrer l'application Salt TV</t>
-  </si>
-  <si>
-    <t>https://support.apple.com/fr-ch/guide/tv/atvbbcec4f4e/tvos</t>
-  </si>
-  <si>
-    <t>Aller dans : &lt;N&gt;&lt;T&gt;- Réglages&lt;N&gt;&lt;T&gt;- Système&lt;N&gt;&lt;T&gt;- Redémarrer</t>
-  </si>
-  <si>
-    <t>Redémarrer l'Apple TV</t>
-  </si>
-  <si>
-    <t>https://support.apple.com/fr-ch/HT201836</t>
-  </si>
-  <si>
-    <t>Encourager le client à effectuer l'enregistrement de la réparation en ligne</t>
-  </si>
-  <si>
-    <t>L'Apple TV doit être réparée</t>
-  </si>
-  <si>
-    <t>https://qoof.salt.ch/fr/customer-process/use_trouble/replacement_and_repair/repair_equipment_fiberbox_tvbox_accessories#salt-fiber-box-acc%C3%A9ssoires-et-apple-tv-4k</t>
-  </si>
-  <si>
-    <t>Aller dans : &lt;N&gt;&lt;T&gt;- Réglages&lt;N&gt;&lt;T&gt;- Système&lt;N&gt;&lt;T&gt;- Réinitialiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réinitialiser l'Apple TV </t>
-  </si>
-  <si>
-    <t>https://support.apple.com/fr-ch/HT202118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un AppleID créé en sélectionnant un pays autre que la Suisse ne permet pas de télécharger SaltTV. </t>
-  </si>
-  <si>
-    <t>Le client dispose d'un Apple ID Suisse ?</t>
-  </si>
-  <si>
-    <t>Apple ID Suisse</t>
-  </si>
-  <si>
-    <t>Pas de Apple ID Suisse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'écran de démarrage classique, contenant des icônes d'applications préinstallées.&lt;N&gt;(telles que l'App Store) </t>
-  </si>
-  <si>
-    <t>L'écran de démarrage de l'Apple TV est-il visible sur le téléviseur ?</t>
-  </si>
-  <si>
-    <t>tv/tvhomescreen</t>
-  </si>
-  <si>
-    <t>Visible</t>
-  </si>
-  <si>
     <t>Pas visible</t>
   </si>
   <si>
-    <t xml:space="preserve">Qualité de diffusion non satisfaisante.&lt;N&gt;Mouvements à l'image Image pas fluides&lt;N&gt;Des blocs géométriques apparaissents &lt;N&gt;Couleurs anormales </t>
-  </si>
-  <si>
-    <t>Le flux d'image est-il mauvais ?</t>
-  </si>
-  <si>
-    <t>tv/jerky_image#900#675#24</t>
-  </si>
-  <si>
-    <t>Si oui il se peut que le client soit barré</t>
-  </si>
-  <si>
-    <t>Y a-t-il un message invitant le client à appeler le service clientèle ?</t>
+    <t>Pas de Swiss Apple ID</t>
+  </si>
+  <si>
+    <t>Sur WiFi</t>
   </si>
   <si>
     <t>Pas de message</t>
   </si>
   <si>
-    <t xml:space="preserve">L'icône de l'application Salt TV est-elle visible ?  </t>
-  </si>
-  <si>
-    <t>tv/salttvicon</t>
-  </si>
-  <si>
-    <t>Aller sur :&lt;N&gt;&lt;T&gt;- VTI -&gt; Gestion de l’offre -&gt; Dashboard santé -&gt; TV</t>
-  </si>
-  <si>
-    <t>Les services TV sont actifs dans VTI ?</t>
-  </si>
-  <si>
-    <t>tv/activetvservice</t>
+    <t>Problème</t>
+  </si>
+  <si>
+    <t>Le son est mauvais</t>
+  </si>
+  <si>
+    <t>Ne peut pas regarder la TV</t>
+  </si>
+  <si>
+    <t>Aucun incident</t>
+  </si>
+  <si>
+    <t>Son</t>
+  </si>
+  <si>
+    <t>Oui, il y a un incident</t>
+  </si>
+  <si>
+    <t>Ne peut pas utiliser la télécommande</t>
   </si>
   <si>
     <t>Actifs</t>
   </si>
   <si>
-    <t>Problème</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est-ce que le client confirme que tous les canaux fonctionnent correctement ? </t>
-  </si>
-  <si>
-    <t>Le problème est-il résolu ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tout OK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quel est le type de connexion du client ? </t>
-  </si>
-  <si>
-    <t>Comment l'Apple TV est-elle connectée à la Fiber Box ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si l'alimentation est correcte, la LED est stable et blanche  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La LED blanche (voyant d'état) de l'Apple TV est-elle allumée ? </t>
-  </si>
-  <si>
-    <t>tv/statusled</t>
-  </si>
-  <si>
-    <t>Oui, blanche</t>
-  </si>
-  <si>
-    <t>https://support.apple.com/fr-ch/guide/tv/atvba38a4135/tvos</t>
-  </si>
-  <si>
-    <t>Ouvrir l'application Salt TV</t>
-  </si>
-  <si>
-    <t>Se loguer avec un compte Apple TV Suisse</t>
-  </si>
-  <si>
-    <t>Connecter l'AppleTV en LAN</t>
-  </si>
-  <si>
-    <t>&lt;T&gt;- Vérifiez le compte pour analyser l'état&lt;N&gt;&lt;T&gt;- Vérifiez s'il n'y a pas de ticket ouvert pour ce cas&lt;N&gt;&lt;T&gt;- Vérifiez s'il n'y a pas de problème technique en suspens qui pourrait être à l'origine du problème"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sur la base de &lt;b&gt;vos commentaires&lt;b&gt;, nous avons amélioré le flux et l'application :&lt;N&gt;&lt;T&gt;- Beaucoup d'étapes simplifiées&lt;N&gt;&lt;T&gt;- Plus de captures de valeurs RX&lt;N&gt;&lt;T&gt;- Plus de tests de vitesse&lt;N&gt;&lt;T&gt;- Vérifier que le câble de fibre a été changé avant de vérifier l'installation&lt;N&gt;&lt;N&gt; Bientôt &lt;N&gt; &lt;T&gt;- Dépannage de la télécommande de la télévision.&lt;N&gt; &lt;T&gt;- Dépannage du son de la télévision.&lt;N&gt; &lt;T&gt;- Explications graphiques améliorées </t>
-  </si>
-  <si>
-    <t>general/feedbacks</t>
-  </si>
-  <si>
-    <t>vti/IsBoxReachable_fr</t>
-  </si>
-  <si>
-    <t>Nous allons tester ensemble vos vitesses de connexion.&lt;N&gt;Commençons par un reboot de la box</t>
-  </si>
-  <si>
-    <t>Demander au client de reproduire ce qu'il a fait et qui l'a amené à appeler</t>
-  </si>
-  <si>
-    <t>Salt&lt;N&gt;&lt;T&gt;- Streaming app freezing&lt;N&gt;&lt;&lt;T&gt;- Long chargement de la page&lt;N&gt;&lt;T&gt;- Etc."</t>
-  </si>
-  <si>
-    <t>_ActivateTVServicesVTI</t>
-  </si>
-  <si>
-    <t>_CheckHDMIcnx</t>
-  </si>
-  <si>
-    <t>_CheckIfAppNeedsUpdate</t>
-  </si>
-  <si>
-    <t>_CheckIfSaltTVNeedsUpdate</t>
-  </si>
-  <si>
-    <t>_ChekSaltTVKNownBugs</t>
-  </si>
-  <si>
-    <t>_ConnectAppleTVtoOneGhz</t>
-  </si>
-  <si>
-    <t>_CreateAppleIDorBypass</t>
-  </si>
-  <si>
-    <t>_CreateSOTicketSaltTV</t>
-  </si>
-  <si>
-    <t>_InstallSaltTV</t>
-  </si>
-  <si>
-    <t>_InstallSpeedTestAplleTV</t>
-  </si>
-  <si>
-    <t>_MakeSurePowerCableWellPlugged</t>
-  </si>
-  <si>
-    <t>_QuitAndRelaunchSaltTV</t>
-  </si>
-  <si>
-    <t>_RebootAppleTV</t>
-  </si>
-  <si>
-    <t>_RepairProcess</t>
-  </si>
-  <si>
-    <t>_ResetAppleTV</t>
-  </si>
-  <si>
-    <t>HasAppleAccount</t>
-  </si>
-  <si>
-    <t>IsAppleTVvisibleOnTVScreen</t>
-  </si>
-  <si>
-    <t>IsImageJerky</t>
-  </si>
-  <si>
-    <t>IsMessageInvitingToContactCC</t>
-  </si>
-  <si>
-    <t>IsSaltIconVisibleOnAppleTV</t>
-  </si>
-  <si>
-    <t>IsTVServicesActiveVTI</t>
-  </si>
-  <si>
-    <t>ProblemSolved</t>
-  </si>
-  <si>
-    <t>WhatAppleTVcnxType</t>
-  </si>
-  <si>
-    <t>WhiteLightLids</t>
-  </si>
-  <si>
-    <t>_OpenSaltTVApp</t>
-  </si>
-  <si>
-    <t>_LogInWithSwissAppleID</t>
-  </si>
-  <si>
-    <t>_ConnectAppleTVtoTheLAN</t>
+    <t>Sur LAN</t>
+  </si>
+  <si>
+    <t>A jour</t>
+  </si>
+  <si>
+    <t>Tout OK</t>
+  </si>
+  <si>
+    <t>Télécommande Apple TV Siri</t>
+  </si>
+  <si>
+    <t>Télécommande Salt TV</t>
+  </si>
+  <si>
+    <t>Prenez votre preuve d'achat avec vous. Allez dans un Salt Store_x000D_
+La télécommande sera remplacée.</t>
+  </si>
+  <si>
+    <t>L'écran d'accueil classique, contenant des icônes d'applications préinstallées.&lt;N&gt;(telles que l'App Store)</t>
+  </si>
+  <si>
+    <t>Assurez-vous que le câble d'alimentation est bien branché.&lt;N&gt; Changez la prise murale si nécessaire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si l'alimentation est correcte, la LED est stable et blanche </t>
+  </si>
+  <si>
+    <t>Vérifiez que le numéro de port HDMI physique correspond au type &lt;Q&gt;INPUT/SOURCE&lt;Q&gt; sélectionné sur le téléviseur.&lt;N&gt;Remplacez le câble HDMI si possible.</t>
+  </si>
+  <si>
+    <t>Encouragez le client à effectuer l'enregistrement de la réparation en ligne</t>
+  </si>
+  <si>
+    <t>Tapez "Salt" dans la recherche</t>
+  </si>
+  <si>
+    <t>Prenez le temps d'aider le client à créer l'Apple ID.&lt;N&gt; Veillez à sélectionner la Suisse comme pays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un AppleID créé en sélectionnant un pays autre que la Suisse ne vous permet pas de télécharger SaltTV. </t>
+  </si>
+  <si>
+    <t>Dans le document Qoof, vous trouverez des tutoriels YouTube pour les clients avec ou sans Apple ID.</t>
+  </si>
+  <si>
+    <t>1. Sélectionnez SUISSE comme pays.&lt;N&gt;2. Connectez l'Apple TV à la Fiber Box pour activer l'identification &lt;Q&gt;Zéro dans&lt;QR&gt;.&lt;N&gt;3. Sautez l'étape de saisie de l'Apple ID.&lt;N&gt;4. Sélectionnez Salt comme fournisseur de télévision</t>
+  </si>
+  <si>
+    <t>Aller à:&lt;N&gt;&lt;T&gt;- Paramètres&lt;N&gt;&lt;T&gt;- Système&lt;N&gt;&lt;T&gt;- Réinitialisation</t>
+  </si>
+  <si>
+    <t>Appuyez deux fois rapidement sur la touche &lt;Q&gt;Home&lt;Q&gt;. &lt;N&gt;Swipez à gauche ou à droite sur la surface tactile de la télécommande Siri pour naviguer vers l'application Salt TV. &lt;N&gt;Swipez sur la surface tactile de la télécommande Siri pour forcer l'arrêt de l'application Salt TV. &lt;N&gt; Appuyez sur la touche menu pour revenir à l'écran &lt;Q&gt;Home&lt;Q&gt; et redémarrer l'application Salt TV.</t>
+  </si>
+  <si>
+    <t>Le client confirme-t-il que toutes les chaînes fonctionnent correctement ?</t>
+  </si>
+  <si>
+    <t>Allez à:&lt;N&gt;&lt;T&gt;- Paramètres&lt;N&gt;&lt;T&gt;- Système&lt;N&gt;&lt;T&gt;- Redémarrer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si une mise à jour est nécessaire, mettez à jour l'application Salt TV. &lt;N&gt;&lt;N&gt;Recommander au client de configurer les mises à jour automatiques de l'application. </t>
+  </si>
+  <si>
+    <t>Quel est le type de connexion du client ?</t>
+  </si>
+  <si>
+    <t>Si oui, le client peut être bloqué.</t>
+  </si>
+  <si>
+    <t>Allez à:&lt;N&gt;&lt;T&gt;- VTI -&gt; Gestion de l'offre -&gt; Bilan de santé -&gt; TV</t>
+  </si>
+  <si>
+    <t>Choisissez la télécommande pour les questions &lt;N&gt;&lt;T&gt;- Siri remote&lt;N&gt;&lt;T&gt;- Salt TV remote&lt;N&gt;&lt;N&gt;Choisissez la TV pour les questions &lt;N&gt;&lt;T&gt;- AppleTV&lt;N&gt;&lt;T&gt;- Salt TV app&lt;N&gt;&lt;T&gt;- channels &lt;N&gt;&lt;T&gt;- feature &lt;N&gt;&lt;T&gt;- install&lt;N&gt;&lt;T&gt;- Etc...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifiez si un incident général de Salt TV ou un incident affectant la chaîne spécifique est publié dans Qoof.&lt;N&gt;Statut &lt;Q&gt;Ouvert&lt;Q&gt; </t>
+  </si>
+  <si>
+    <t>Problème de chaîne = je ne peux pas accéder à une chaîne&lt;N&gt; Problème de fonctionnalité : certaines fonctionnalités de l'application ne fonctionnent pas</t>
+  </si>
+  <si>
+    <t>Teminez gentiment l'appel. Excuses pour les désagréments</t>
+  </si>
+  <si>
+    <t>Un ticket [541] sera automatiquement généré lors du passage à l'étape suivante. Ne pas en créer un manuellement (SuperOffice). Une copie du contenu sera envoyée à votre boîte e-mail.</t>
+  </si>
+  <si>
+    <t>Le client peut toujours revenir à un autre pays plus tard si nécessaire.&lt;N&gt;Lisez "Que faire avant de changer de pays ou de région" sous le lien ci-dessous pour connaître les conditions de changement de langue d'un Apple ID</t>
+  </si>
+  <si>
+    <t>Il y a plusieurs façons de changer la langue (sur l'iPhone, l'iPad, l'iPod touch, un ordinateur Mac ou la page web Apple ID).&lt;N&gt;Voici la page web Apple ID:&lt;N&gt;Sur un navigateur web&lt;N&gt;&lt;T&gt;1. Enregistrez-vous sur https://appleid.apple.com/ avec votre Apple ID&lt;N&gt;&lt;T&gt;2. Faites défiler jusqu'à la section "Account", puis cliquez sur "Edit".&lt;N&gt;&lt;T&gt;Dans le menu "Country/Region", sélectionnez votre nouveau pays ou votre nouvelle région.&lt;N&gt;&lt;T&gt;4. Lorsqu'on vous demande si vous voulez changer votre pays ou votre région, cliquez sur "Continue to update". &lt;N&gt;&lt;T&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lire les conseils optimaux WiFi.&lt;N&gt;&lt;T&gt;- redémarrer régulièrement votre Fiber Box afin de permettre au système de rester à jour et dans un état stable (le téléchargement du dernier firmware se fait au démarrage de la Fiber Box).&lt;N&gt;&lt;T&gt;- placer la Fiber Box à un endroit central de votre logement.&lt;N&gt;&lt;T&gt;- ne pas placer la Fiber Box derrière, sous, sur le téléviseur, contre un élément métallique ou à proximité d’un aquarium.&lt;N&gt;&lt;T&gt;- placer la Fiber Box à plat et, si possible, en hauteur.&lt;N&gt;&lt;T&gt;- utiliser des répéteurs Wi-Fi pour couvrir les zones éloignées de votre Fiber Box.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si une mise à jour est nécessaire, mettez à jour l'Apple TV.&lt;N&gt;&lt;T&gt;- Allez sur &lt;Q&gt;Paramètres - Système - Mises à jour du logiciel&lt;Q&gt;&lt;N&gt;&lt;T&gt;- Sélectionnez &lt;Q&gt;Mise à jour du logiciel&lt;Q&gt; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2533,8 +2797,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2544,6 +2823,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2557,10 +2842,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2573,8 +2859,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2592,10 +2891,6 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="all_fr" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="salttv_fr" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2623,11 +2918,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stability_fr" refreshOnLoad="1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stability_fr" refreshOnLoad="1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wifi-lan_fr" refreshOnLoad="1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wifi-lan_fr" refreshOnLoad="1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2893,26 +3188,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="47.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2938,7 +3233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2946,7 +3241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2954,7 +3249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2965,12 +3260,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2981,7 +3276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -3004,7 +3299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -3015,7 +3310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -3029,7 +3324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -3046,128 +3341,103 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -3177,488 +3447,766 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.6328125" customWidth="1"/>
+    <col min="2" max="2" width="80.1796875" customWidth="1"/>
+    <col min="3" max="3" width="54.1796875" customWidth="1"/>
+    <col min="4" max="4" width="29.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B2" t="s">
-        <v>655</v>
-      </c>
-      <c r="C2" t="s">
-        <v>656</v>
-      </c>
-      <c r="D2" t="s">
-        <v>657</v>
-      </c>
-      <c r="E2" t="s">
-        <v>658</v>
-      </c>
-      <c r="H2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B59" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="B3" t="s">
-        <v>660</v>
-      </c>
-      <c r="C3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D3" t="s">
-        <v>662</v>
-      </c>
-      <c r="E3" t="s">
-        <v>663</v>
-      </c>
-      <c r="H3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>750</v>
-      </c>
-      <c r="B4" t="s">
-        <v>665</v>
-      </c>
-      <c r="C4" t="s">
-        <v>666</v>
-      </c>
-      <c r="E4" t="s">
-        <v>667</v>
-      </c>
-      <c r="H4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>751</v>
-      </c>
-      <c r="B5" t="s">
-        <v>669</v>
-      </c>
-      <c r="C5" t="s">
-        <v>670</v>
-      </c>
-      <c r="D5" t="s">
-        <v>671</v>
-      </c>
-      <c r="E5" t="s">
-        <v>667</v>
-      </c>
-      <c r="H5" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>752</v>
-      </c>
-      <c r="B6" t="s">
-        <v>673</v>
-      </c>
-      <c r="C6" t="s">
-        <v>674</v>
-      </c>
-      <c r="E6" t="s">
-        <v>675</v>
-      </c>
-      <c r="H6" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>753</v>
-      </c>
-      <c r="B7" t="s">
-        <v>677</v>
-      </c>
-      <c r="C7" t="s">
-        <v>678</v>
-      </c>
-      <c r="D7" t="s">
-        <v>579</v>
-      </c>
-      <c r="E7" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>754</v>
-      </c>
-      <c r="B8" t="s">
-        <v>680</v>
-      </c>
-      <c r="C8" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>755</v>
-      </c>
-      <c r="B9" t="s">
-        <v>682</v>
-      </c>
-      <c r="C9" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>756</v>
-      </c>
-      <c r="B10" t="s">
-        <v>684</v>
-      </c>
-      <c r="C10" t="s">
-        <v>685</v>
-      </c>
-      <c r="H10" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>757</v>
-      </c>
-      <c r="B11" t="s">
-        <v>687</v>
-      </c>
-      <c r="C11" t="s">
-        <v>688</v>
-      </c>
-      <c r="H11" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>758</v>
-      </c>
-      <c r="B12" t="s">
-        <v>690</v>
-      </c>
-      <c r="C12" t="s">
-        <v>691</v>
-      </c>
-      <c r="D12" t="s">
-        <v>692</v>
-      </c>
-      <c r="E12" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>759</v>
-      </c>
-      <c r="B13" t="s">
-        <v>694</v>
-      </c>
-      <c r="C13" t="s">
-        <v>695</v>
-      </c>
-      <c r="H13" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>760</v>
-      </c>
-      <c r="B14" t="s">
-        <v>697</v>
-      </c>
-      <c r="C14" t="s">
-        <v>698</v>
-      </c>
-      <c r="H14" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>761</v>
-      </c>
-      <c r="B15" t="s">
-        <v>700</v>
-      </c>
-      <c r="C15" t="s">
-        <v>701</v>
-      </c>
-      <c r="H15" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>762</v>
-      </c>
-      <c r="B16" t="s">
-        <v>703</v>
-      </c>
-      <c r="C16" t="s">
-        <v>704</v>
-      </c>
-      <c r="H16" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>763</v>
-      </c>
-      <c r="B17" t="s">
-        <v>706</v>
-      </c>
-      <c r="C17" t="s">
-        <v>707</v>
-      </c>
-      <c r="E17" t="s">
-        <v>708</v>
-      </c>
-      <c r="F17" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>764</v>
-      </c>
-      <c r="B18" t="s">
-        <v>710</v>
-      </c>
-      <c r="C18" t="s">
-        <v>711</v>
-      </c>
-      <c r="D18" t="s">
-        <v>712</v>
-      </c>
-      <c r="E18" t="s">
-        <v>713</v>
-      </c>
-      <c r="F18" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>765</v>
-      </c>
-      <c r="B19" t="s">
-        <v>715</v>
-      </c>
-      <c r="C19" t="s">
-        <v>716</v>
-      </c>
-      <c r="D19" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>766</v>
-      </c>
-      <c r="B20" t="s">
-        <v>718</v>
-      </c>
-      <c r="C20" t="s">
-        <v>719</v>
-      </c>
-      <c r="E20" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>767</v>
-      </c>
-      <c r="C21" t="s">
-        <v>721</v>
-      </c>
-      <c r="D21" t="s">
-        <v>722</v>
-      </c>
-      <c r="E21" t="s">
-        <v>713</v>
-      </c>
-      <c r="F21" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>768</v>
-      </c>
-      <c r="B22" t="s">
-        <v>723</v>
-      </c>
-      <c r="C22" t="s">
-        <v>724</v>
-      </c>
-      <c r="D22" t="s">
-        <v>725</v>
-      </c>
-      <c r="E22" t="s">
-        <v>726</v>
-      </c>
-      <c r="F22" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>769</v>
-      </c>
-      <c r="B23" t="s">
-        <v>728</v>
-      </c>
-      <c r="C23" t="s">
-        <v>729</v>
-      </c>
-      <c r="E23" t="s">
-        <v>730</v>
-      </c>
-      <c r="F23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>770</v>
-      </c>
-      <c r="B24" t="s">
-        <v>731</v>
-      </c>
-      <c r="C24" t="s">
-        <v>732</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>771</v>
-      </c>
-      <c r="B25" t="s">
-        <v>733</v>
-      </c>
-      <c r="C25" t="s">
-        <v>734</v>
-      </c>
-      <c r="D25" t="s">
-        <v>735</v>
-      </c>
-      <c r="E25" t="s">
-        <v>736</v>
-      </c>
-      <c r="F25" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>772</v>
-      </c>
-      <c r="C26" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>773</v>
-      </c>
-      <c r="C27" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>774</v>
-      </c>
-      <c r="C28" t="s">
-        <v>740</v>
+      <c r="B60" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>811</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H12" r:id="rId1"/>
+    <hyperlink ref="H18" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3667,22 +4215,22 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A1:XFD1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="81.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="72.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="45.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="81.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="72.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3708,130 +4256,130 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3845,19 +4393,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3883,213 +4431,213 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H3" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>103</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
         <v>104</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>108</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>109</v>
       </c>
-      <c r="H5" t="s">
+      <c r="C6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>111</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>113</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
         <v>115</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>116</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>117</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
         <v>119</v>
       </c>
-      <c r="B8" t="s">
+      <c r="H8" t="s">
         <v>120</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>121</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
         <v>122</v>
       </c>
-      <c r="H8" t="s">
+      <c r="C9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>124</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>125</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
         <v>127</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E11" t="s">
         <v>129</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
         <v>130</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>131</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
         <v>132</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F12" t="s">
         <v>134</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>135</v>
       </c>
-      <c r="E12" t="s">
+      <c r="B13" t="s">
         <v>136</v>
       </c>
-      <c r="F12" t="s">
+      <c r="C13" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E13" t="s">
         <v>138</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F13" t="s">
         <v>139</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>140</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C14" t="s">
         <v>141</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="F14" t="s">
         <v>143</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>144</v>
       </c>
-      <c r="E14" t="s">
+      <c r="B15" t="s">
         <v>145</v>
       </c>
-      <c r="F14" t="s">
+      <c r="C15" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="H15" t="s">
         <v>147</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>148</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
         <v>149</v>
       </c>
-      <c r="H15" t="s">
+      <c r="C16" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E16" t="s">
         <v>151</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F16" t="s">
         <v>152</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>153</v>
       </c>
-      <c r="E16" t="s">
+      <c r="C17" t="s">
         <v>154</v>
-      </c>
-      <c r="F16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4105,19 +4653,19 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4143,278 +4691,278 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>161</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>162</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>164</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>165</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H5" t="s">
         <v>167</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>168</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>169</v>
       </c>
-      <c r="H5" t="s">
+      <c r="C6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>171</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>172</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>173</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C8" t="s">
         <v>175</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>177</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>178</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
         <v>180</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
         <v>182</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>184</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>185</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>187</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
         <v>188</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
         <v>190</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C15" t="s">
         <v>192</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E15" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F15" t="s">
         <v>194</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>195</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C16" t="s">
         <v>196</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E16" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F16" t="s">
         <v>198</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>199</v>
       </c>
-      <c r="E16" t="s">
+      <c r="B17" t="s">
         <v>200</v>
       </c>
-      <c r="F16" t="s">
+      <c r="C17" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
         <v>202</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" t="s">
         <v>203</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>204</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
         <v>205</v>
       </c>
-      <c r="E17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C19" t="s">
         <v>207</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
         <v>209</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>211</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C21" t="s">
         <v>212</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E21" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="F21" t="s">
         <v>214</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>215</v>
       </c>
-      <c r="E21" t="s">
+      <c r="B22" t="s">
         <v>216</v>
       </c>
-      <c r="F21" t="s">
+      <c r="C22" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D22" t="s">
         <v>218</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" t="s">
         <v>219</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>220</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B23" t="s">
         <v>221</v>
       </c>
-      <c r="E22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="C23" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D23" t="s">
         <v>223</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>224</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>225</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E24" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C24" t="s">
-        <v>228</v>
-      </c>
-      <c r="E24" t="s">
-        <v>229</v>
-      </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4430,18 +4978,18 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4467,216 +5015,216 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
         <v>233</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>234</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>235</v>
       </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>237</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>238</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>240</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
         <v>241</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>242</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
         <v>243</v>
       </c>
-      <c r="H5" t="s">
+      <c r="C6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>245</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>246</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>248</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>249</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>251</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
         <v>253</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>254</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>255</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
         <v>257</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>258</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
         <v>259</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E11" t="s">
         <v>261</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>262</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>263</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
         <v>264</v>
       </c>
-      <c r="F11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E12" t="s">
         <v>265</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>266</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>267</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C13" t="s">
         <v>268</v>
       </c>
-      <c r="F12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E13" t="s">
         <v>269</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>270</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>271</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>272</v>
       </c>
-      <c r="F13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>273</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>274</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>276</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
         <v>277</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C16" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
         <v>279</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>280</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>281</v>
-      </c>
-      <c r="D16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>283</v>
-      </c>
-      <c r="B17" t="s">
-        <v>284</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -4685,21 +5233,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" t="s">
         <v>285</v>
       </c>
-      <c r="B18" t="s">
+      <c r="H18" t="s">
         <v>286</v>
-      </c>
-      <c r="C18" t="s">
-        <v>287</v>
-      </c>
-      <c r="D18" t="s">
-        <v>288</v>
-      </c>
-      <c r="H18" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4709,26 +5257,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="A1:XFD1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4754,157 +5302,157 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>31</v>
@@ -4913,60 +5461,43 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F14" s="2" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4976,24 +5507,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="A1:H36"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="81.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5019,31 +5550,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -5051,53 +5582,53 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5105,35 +5636,35 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -5141,73 +5672,73 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5215,33 +5746,33 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5249,49 +5780,49 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -5299,123 +5830,123 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -5423,33 +5954,33 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -5457,41 +5988,41 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>443</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -5499,71 +6030,71 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -5571,13 +6102,13 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -5585,37 +6116,37 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -5623,84 +6154,44 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>744</v>
+        <v>469</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -5710,24 +6201,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="A1:H23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="79.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="81.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5753,9 +6244,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5765,33 +6256,33 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>745</v>
+        <v>479</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -5799,13 +6290,13 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -5813,33 +6304,33 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -5847,13 +6338,13 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -5861,89 +6352,89 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -5951,77 +6442,77 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -6029,13 +6520,13 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -6043,37 +6534,37 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -6081,15 +6572,15 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>866</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -6097,132 +6588,71 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="H27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E27" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="81.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="44.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6248,400 +6678,405 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="H19" s="2" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="H20" s="2" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="E23" s="2" t="s">
+    </row>
+    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="B30" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>642</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>